--- a/fastgarden_results.xlsx
+++ b/fastgarden_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganmcguire/ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganmcguire/ML/fastgarden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5397E30E-3973-FB49-B066-A5F5801E216C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{911CFAC1-FB1B-E249-B2EA-99298460D343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="27440" windowHeight="17040" xr2:uid="{67BE52F2-853F-5A4D-8FED-8C287206B25D}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="20840" windowHeight="17540" xr2:uid="{67BE52F2-853F-5A4D-8FED-8C287206B25D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>1 Contrastive Learning pretraiing</t>
   </si>
   <si>
-    <t>Funny 1 ep, clear head, 4 ep</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -218,15 +215,9 @@
     <t>Avg Val Loss</t>
   </si>
   <si>
-    <t>Baseline w/restart</t>
-  </si>
-  <si>
     <t>Training Notes</t>
   </si>
   <si>
-    <t>Restart ffc and add fresh head head after 1 epoch</t>
-  </si>
-  <si>
     <t>Find lottery ticket (init testing)</t>
   </si>
   <si>
@@ -248,10 +239,85 @@
     <t>LabelSmoothingCrossEntropy</t>
   </si>
   <si>
-    <t>Baseline, label smoothing</t>
-  </si>
-  <si>
-    <t>Baseline, shorter ffc pct_start</t>
+    <t>Baseline, lower lr</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>pct_start=0.25</t>
+  </si>
+  <si>
+    <t>Baseline, label smoothing (ls)</t>
+  </si>
+  <si>
+    <t>Baseline, no fastai head, ls</t>
+  </si>
+  <si>
+    <t>Baseline, no fastai head, longer ffc pct_start (0.9)</t>
+  </si>
+  <si>
+    <t>Baseline, no fastai head, shorter ffc pct_start (0.25)</t>
+  </si>
+  <si>
+    <t>Baseline,  label smoothing, shorter ffc pct_start (0.25)</t>
+  </si>
+  <si>
+    <t>Baseline, no fastai head, lhigher lr</t>
+  </si>
+  <si>
+    <t>ffc at 0.9, ffc at 0.9</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 1/4</t>
+  </si>
+  <si>
+    <t>fit, ffc at 0.25</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 2/3</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 3/2</t>
+  </si>
+  <si>
+    <t>ffc, ffc at 0.25</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 2/3, pct_start 0.5</t>
+  </si>
+  <si>
+    <t>MaxBlurPool</t>
+  </si>
+  <si>
+    <t>15b</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 2/3, pct_start 0.5 (5runs)</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 2/3, pct_start 0.5 (5runs), tune lrs</t>
+  </si>
+  <si>
+    <t>fit, ffc at 0.5</t>
+  </si>
+  <si>
+    <t>fit @ 1e-2, ffc at 0.5 @ 2e-3</t>
+  </si>
+  <si>
+    <t>1x128, 4x224</t>
+  </si>
+  <si>
+    <t>2x128, 3x224</t>
+  </si>
+  <si>
+    <t>3x128, 2x224</t>
+  </si>
+  <si>
+    <t>Baseline, progressive resizing 2/3, pct_start 0.85 (5runs), tune lrs</t>
+  </si>
+  <si>
+    <t>fit @ 1e-2, ffc at 0.85 @ 2e-3</t>
   </si>
 </sst>
 </file>
@@ -318,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +401,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,23 +719,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24A8B3D-B268-D246-B51C-0EF5A46AA9BB}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
     <col min="12" max="13" width="17.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
@@ -673,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="6"/>
@@ -681,194 +752,200 @@
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -876,40 +953,43 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.63</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>5</v>
+      <c r="E15">
+        <v>1.39</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="5">
         <v>0.01</v>
       </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
@@ -917,186 +997,2487 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="E16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E16">
+        <v>1.55</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="5">
         <v>0.01</v>
       </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="E17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
+      <c r="C17" s="10">
+        <v>0.6341</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="5">
         <v>0.01</v>
       </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.61370000000000002</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="E18">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="D19" s="10">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="E19">
+        <v>2.04</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="C20" s="10">
+        <v>0.69579999999999997</v>
+      </c>
+      <c r="D20" s="10">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="E20">
+        <v>2.11</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="5">
         <v>0.01</v>
       </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="D22" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>2.11</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>9</v>
       </c>
-      <c r="M18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" t="s">
-        <v>58</v>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.56120000000000003</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.52</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E24">
+        <v>2.15</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.12</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.08</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D27" s="10">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E27">
+        <v>2.12</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="D28" s="10">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.13</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.04</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.06</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.6673</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1.84E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.19</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.14</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="E36" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>5</v>
+      <c r="E37" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C20">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C21">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C22">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34 C23">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35 C23">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36 C23">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36 C15:C23">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I23">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="123">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C25">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C27">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33 I31">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33 I31">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33 I31">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C29 C33">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C35">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I20 I34:I37">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I26 I34:I36">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C30 C33:C36">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I37">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fastgarden_results.xlsx
+++ b/fastgarden_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganmcguire/ML/fastgarden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{911CFAC1-FB1B-E249-B2EA-99298460D343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CECC72D-B8B6-B043-A072-44BCE90D0696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="20840" windowHeight="17540" xr2:uid="{67BE52F2-853F-5A4D-8FED-8C287206B25D}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{67BE52F2-853F-5A4D-8FED-8C287206B25D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
   <si>
     <t>1 Contrastive Learning pretraiing</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>fit @ 1e-2, ffc at 0.85 @ 2e-3</t>
+  </si>
+  <si>
+    <t>Try RandomResizeCrop, min_scale 0.7</t>
   </si>
 </sst>
 </file>
@@ -721,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24A8B3D-B268-D246-B51C-0EF5A46AA9BB}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1792,6 +1795,9 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33"/>
@@ -1823,6 +1829,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:C18">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -1834,20 +1852,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1859,6 +1865,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C20">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -1870,20 +1888,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C20">
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C15:C21">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1906,20 +1924,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1931,7 +1937,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="colorScale" priority="151">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1954,19 +1972,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C15:C22">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -1978,19 +1996,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C34">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 C34">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -2002,20 +2020,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34 C23">
+  <conditionalFormatting sqref="C34:C35 C23">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
     <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35 C23">
-    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2038,20 +2056,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2074,19 +2092,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C34:C36 C23">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C36 C15:C23">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -2098,20 +2116,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C36 C15:C23">
+  <conditionalFormatting sqref="I23">
     <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2123,7 +2129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I23">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2135,7 +2141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="colorScale" priority="126">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2147,7 +2153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2159,6 +2165,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -2206,7 +2224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C15:C24">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -2218,15 +2236,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C24">
+  <conditionalFormatting sqref="I25">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2242,8 +2260,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="colorScale" priority="117">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C25">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2254,90 +2356,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C25">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I26">
     <cfRule type="colorScale" priority="103">
       <colorScale>
@@ -2350,8 +2368,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="C26">
     <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2362,90 +2464,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="93">
       <colorScale>
@@ -2458,8 +2476,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2470,92 +2572,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="C15:C27">
     <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2566,18 +2596,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C27">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="82">
       <colorScale>
@@ -2590,8 +2608,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2603,91 +2705,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2698,18 +2728,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="71">
       <colorScale>
@@ -2722,8 +2740,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2735,91 +2837,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31 I33">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2830,19 +2860,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33 I31">
+  <conditionalFormatting sqref="I31 I33">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -2854,8 +2872,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33 I31">
+  <conditionalFormatting sqref="C33">
     <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31 I33">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2867,91 +2969,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33 I31">
     <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C29 C33">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2962,30 +3004,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C29 C33">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="48">
       <colorScale>
@@ -2999,7 +3017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3010,8 +3028,116 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3022,114 +3148,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -3142,8 +3160,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3155,7 +3257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3167,7 +3269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3179,67 +3281,151 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C35">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I20 I34:I37">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3250,176 +3436,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C35">
-    <cfRule type="colorScale" priority="181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I20 I34:I37">
-    <cfRule type="colorScale" priority="183">
+  <conditionalFormatting sqref="I15:I26 I34:I36">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3430,8 +3448,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I26 I34:I36">
-    <cfRule type="colorScale" priority="185">
+  <conditionalFormatting sqref="C15:C30 C33:C36">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I37">
+    <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3442,20 +3472,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C30 C33:C36">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I37">
-    <cfRule type="colorScale" priority="190">
+  <conditionalFormatting sqref="C15:C36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I36">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3463,18 +3493,6 @@
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C36">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
